--- a/dynamic/다이나믹팀(rest api 명세).xlsx
+++ b/dynamic/다이나믹팀(rest api 명세).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\MyProject\Dynamic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\MyProject\Spring\dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="유저" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="598">
   <si>
     <t>그룹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,12 +135,6 @@
   <si>
     <t>{
   "에러 발생" : "존재하지 않는 이메일입니다"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "에러 발생" : "존재하지 않는 아이디/전화번호입니다."
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,14 +550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>명세서 양식 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 급여명세서 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">{
 "급여 측정 시작/끝 날짜를 기입해주세요"
 }
@@ -574,12 +560,6 @@
 "기본급을 기입해주십시오"
 }
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"존재하지 않는 급여명세서 ID입니다"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -817,10 +797,6 @@
   </si>
   <si>
     <t>"00직원 정보가 정상적으로 삭제되었습니다"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"급여명세서id 00이(가) 정상적으로 삭제되었습니다"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1678,10 +1654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET/api/user-product/id/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[
 {
 "username": "sangsu1234",
@@ -1822,10 +1794,6 @@
   </si>
   <si>
     <t>GET/api/review/id/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/payrolltemplate/delete/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2130,10 +2098,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메서드명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2431,10 +2395,6 @@
   </si>
   <si>
     <t>getDeductionAndTaxById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deletePayrollTemplate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2838,10 +2798,6 @@
   </si>
   <si>
     <t>GET/api/cart/all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET/api/course/id/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3129,13 +3085,6 @@
   <si>
     <t>{
 "userName " : "sangsu1234",
-"phoneNumber" : "010-1455-4471"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"userName " : "sangsu1234",
 "realName" : "이상근",
 "email" : "sangsu1111@gmail.com",
 "phoneNumber" : "010-1234-5678"
@@ -3193,17 +3142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"userName " : "sangsu1234",
-"phoneNumber" : "010-1455-4471"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST/api/user/use/free-payrolltemplate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3243,11 +3181,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST/api/user/modify-pw-by-id-and-phonenumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X400</t>
+    <t>POST/api/cart/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3255,7 +3197,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X500</t>
+    <t>{
+"userName " : "admin",
+"businessNumber" : "111-11-11111",
+"businessType" : "어업",
+"existBusinessOperator" : true
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/user/modify-pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3272,11 +3223,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST/api/cart/save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X401</t>
+    <t>GET/api/course/id/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "currentPassword": "1234",
+    "newPassword": "3456",
+    "confirmNewPassword": "3456"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "userName": "sangsu1234",
+    "companyName": "좋은상사",
+    "realName": "이상근",
+    "password": null,
+    "gender": "MALE",
+    "email": "sangsu@gmail.com",
+    "phoneNumber": "010-1234-5678",
+    "businessNumber": "111-11-11111",
+    "businessType": "어업",
+    "existBusinessOperator": true,
+    "point": 400,
+    "role": "USER"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "올바르지 않은 접근입니다"
+}
+{
+"현재 비밀번호를 입력해 주세요."
+}
+{
+"현재 비밀번호가 올바르지 않습니다."
+}
+{
+"비밀번호가 일치하지 않습니다"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/api/user-product/id/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3461,7 +3456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3598,6 +3593,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3921,8 +3919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3946,10 +3944,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -3970,174 +3968,174 @@
         <v>6</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>226</v>
+      <c r="A2" s="47" t="s">
+        <v>221</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" ht="198" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="18" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="9" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="18" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="9" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="18" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="9" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="264" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>10</v>
@@ -4146,22 +4144,22 @@
         <v>11</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="23" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
@@ -4170,32 +4168,32 @@
         <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="23"/>
       <c r="C8" s="25" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
@@ -4204,7 +4202,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
@@ -4214,509 +4212,510 @@
         <v>17</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="23" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="231" x14ac:dyDescent="0.3">
+      <c r="A10" s="53"/>
       <c r="B10" s="23" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>20</v>
+        <v>596</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>598</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="23" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="K11" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="L11" s="36"/>
+    </row>
+    <row r="12" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
+      <c r="B12" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="K12" s="38" t="s">
         <v>536</v>
       </c>
-      <c r="L11" s="36" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>600</v>
-      </c>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="27" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="313.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
+      <c r="B14" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="F14" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="313.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="27" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="27" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="23" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+        <v>88</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>577</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>577</v>
+      </c>
       <c r="L16" s="38" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="23" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+        <v>262</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>577</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>577</v>
+      </c>
       <c r="L17" s="38"/>
     </row>
     <row r="18" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
-        <v>120</v>
+      <c r="A18" s="50" t="s">
+        <v>116</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="16" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="132" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="23" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="16" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="23" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="16" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
     </row>
     <row r="21" spans="1:12" ht="132" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
-        <v>122</v>
+      <c r="A21" s="50" t="s">
+        <v>118</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="23" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>284</v>
+        <v>597</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="132" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="23" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N23"/>
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A18:A20"/>
@@ -4757,10 +4756,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -4781,853 +4780,853 @@
         <v>6</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>221</v>
+      <c r="A2" s="47" t="s">
+        <v>216</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="42" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>546</v>
-      </c>
       <c r="L2" s="18" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="18"/>
       <c r="C3" s="42" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>546</v>
-      </c>
       <c r="L3" s="18" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="18"/>
       <c r="C4" s="42" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>21</v>
+      <c r="A5" s="54" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="39" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="24"/>
       <c r="C6" s="39" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="24"/>
       <c r="C7" s="39" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="24"/>
       <c r="C8" s="39" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="J8" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="35"/>
       <c r="C9" s="39" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="132" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
-        <v>33</v>
+      <c r="A10" s="56" t="s">
+        <v>32</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="39" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="132" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="24"/>
       <c r="C11" s="39" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="35"/>
       <c r="C12" s="39" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="24"/>
       <c r="C13" s="39" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="24"/>
       <c r="C14" s="39" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
-        <v>68</v>
+      <c r="A15" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="39" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="24"/>
       <c r="C16" s="39" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24"/>
       <c r="C17" s="39" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="24"/>
       <c r="C18" s="39" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="24"/>
       <c r="C19" s="39" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="J19" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
-        <v>247</v>
+      <c r="A20" s="53" t="s">
+        <v>242</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="28" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="27" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="23"/>
       <c r="C22" s="39" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="165" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="23"/>
       <c r="C23" s="39" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="198" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="23"/>
       <c r="C24" s="39" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="27" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="28" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="27" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="27" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="28" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" s="27" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="27" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="28" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="29" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -5650,8 +5649,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5668,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
@@ -5689,588 +5688,589 @@
         <v>6</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="280.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
-        <v>69</v>
+      <c r="A2" s="57" t="s">
+        <v>68</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="297" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58"/>
+      <c r="B3" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="297" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="39" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="346.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="39" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="59"/>
+      <c r="B6" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
       <c r="B7" s="39" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+        <v>548</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
       <c r="B8" s="39" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="K8" s="38"/>
+        <v>548</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="39" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="99" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="39" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="39" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>410</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="39" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51"/>
       <c r="B14" s="39" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="52"/>
+      <c r="B15" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="E15" s="10" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K15" s="38"/>
+        <v>526</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
-        <v>114</v>
+      <c r="A16" s="50" t="s">
+        <v>110</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="39" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="39" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="39" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K19">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <filterColumn colId="10">
       <filters blank="1"/>
     </filterColumn>
@@ -6293,8 +6293,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6318,10 +6318,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -6336,7 +6336,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
@@ -6345,574 +6345,574 @@
         <v>6</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="24" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="24" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="24"/>
       <c r="C5" s="39" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="24" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>510</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="8" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="24" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="56"/>
+      <c r="B9" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
-      <c r="B9" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>508</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>506</v>
-      </c>
       <c r="F9" s="35" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="132" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="24" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="24"/>
       <c r="C11" s="39" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>110</v>
+      <c r="A12" s="50" t="s">
+        <v>106</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="22" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="22" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="23"/>
       <c r="C15" s="39" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="23"/>
       <c r="C16" s="39" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="32" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -6937,8 +6937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M6"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6962,10 +6962,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -6980,7 +6980,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
@@ -6989,560 +6989,537 @@
         <v>6</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="198" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="38" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="K2" s="41"/>
       <c r="L2" s="8" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="23" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="23" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="23" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" ht="165" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="25" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="330" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
-        <v>98</v>
+      <c r="A9" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="25" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="23"/>
       <c r="C10" s="25" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8"/>
       <c r="I11" s="9" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="23"/>
       <c r="C12" s="25" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="23"/>
       <c r="C13" s="25" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="F14" s="39" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
       <c r="I14" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="264" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="38" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8"/>
       <c r="I15" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="264" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="38" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="45"/>
     </row>
-    <row r="17" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="45"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="45"/>
+      <c r="H17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
     </row>
     <row r="18" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="38"/>
       <c r="I18" s="3" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
